--- a/backend/templates/registered_report.xlsx
+++ b/backend/templates/registered_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ลำดับที่</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>หมายเลข FingerScan</t>
+  </si>
+  <si>
+    <t>Empire No.</t>
   </si>
 </sst>
 </file>
@@ -461,44 +464,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31.140625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="26.140625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="1" customWidth="1"/>
+    <col min="23" max="23" width="31.140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="26.140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.42578125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -506,81 +509,84 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
